--- a/ESP/data/award.xlsx
+++ b/ESP/data/award.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Documentos (CC etc)\CV\CV R\JDL_CV-master\ESP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ESP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877F1532-B187-4A1C-8142-D21A5F174127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F221ADA5-38E9-4880-BBFD-B335F5B32C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -124,14 +124,14 @@
     <t>Ig Nobel Prize</t>
   </si>
   <si>
+    <t>Economics Prize</t>
+  </si>
+  <si>
+    <t>Por ‘tratar de cuantificar la relación entre la desigualdad de ingresos nacionales en diferentes países y la cantidad promedio de besos boca a boca’ (Watkins,, et al., 2019).</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-Cambridge, Massachusetts, EE.UU.</t>
-  </si>
-  <si>
-    <t>Economics Prize</t>
-  </si>
-  <si>
-    <t>Por ‘tratar de cuantificar la relación entre la desigualdad de ingresos nacionales en diferentes países y la cantidad promedio de besos boca a boca’ (Watkins,, et al., 2019).</t>
+Cambridge, MA, EE.UU.</t>
   </si>
 </sst>
 </file>
@@ -624,56 +624,59 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -689,7 +692,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -988,19 +991,19 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1017,24 +1020,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1051,7 +1054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>

--- a/ESP/data/award.xlsx
+++ b/ESP/data/award.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ESP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F221ADA5-38E9-4880-BBFD-B335F5B32C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001981EE-282B-4A61-BA99-07A42031B0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>Liverpool, Reino Unido</t>
   </si>
   <si>
-    <t>Mejor desempeño general en la maestría.</t>
-  </si>
-  <si>
     <t>Sep. 2020</t>
   </si>
   <si>
@@ -125,13 +122,16 @@
   </si>
   <si>
     <t>Economics Prize</t>
-  </si>
-  <si>
-    <t>Por ‘tratar de cuantificar la relación entre la desigualdad de ingresos nacionales en diferentes países y la cantidad promedio de besos boca a boca’ (Watkins,, et al., 2019).</t>
   </si>
   <si>
     <t xml:space="preserve">
 Cambridge, MA, EE.UU.</t>
+  </si>
+  <si>
+    <t>Por ‘tratar de cuantificar la relación entre la desigualdad de ingresos nacionales en diferentes países y la cantidad promedio de besos boca a boca’ (Watkins,, et al., 2019)</t>
+  </si>
+  <si>
+    <t>Mejor desempeño general en la maestría</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,16 +1022,16 @@
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>35</v>
@@ -1130,7 +1130,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/ESP/data/award.xlsx
+++ b/ESP/data/award.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ESP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001981EE-282B-4A61-BA99-07A42031B0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA50BF54-1F17-4112-8EF9-00E305B1423A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>why</t>
   </si>
   <si>
-    <t>Colciencias</t>
-  </si>
-  <si>
     <t>Universidad El Bosque</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Mejor desempeño general en la maestría</t>
+  </si>
+  <si>
+    <t>Minciencias</t>
   </si>
 </sst>
 </file>
@@ -1022,143 +1022,143 @@
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
